--- a/public/fcl.xlsx
+++ b/public/fcl.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
-  <si>
-    <t>Nº: 2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>Nº: 1</t>
   </si>
   <si>
     <t>Título del Artículo</t>
@@ -62,10 +62,13 @@
     <t>Resumen</t>
   </si>
   <si>
-    <t>aa</t>
+    <t>a</t>
   </si>
   <si>
     <t>Herramientas utilizadas</t>
+  </si>
+  <si>
+    <t>SHA-1 SHA-2 DSA Estándares del NIST para la generación de un DSA.</t>
   </si>
   <si>
     <t>Comentarios</t>
@@ -462,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -517,13 +520,13 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -534,7 +537,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
